--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2018-至今)/造纸和纸制品业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2018-至今)/造纸和纸制品业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,769 +453,769 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.6</v>
+        <v>105.7415</v>
       </c>
       <c r="C2" t="n">
-        <v>107.9</v>
+        <v>116.889</v>
       </c>
       <c r="D2" t="n">
-        <v>99.90000000000001</v>
+        <v>110.4718</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.9</v>
+        <v>105</v>
       </c>
       <c r="C3" t="n">
-        <v>106.6</v>
+        <v>114.2</v>
       </c>
       <c r="D3" t="n">
-        <v>98.7</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.8</v>
+        <v>105.9</v>
       </c>
       <c r="C4" t="n">
-        <v>106.6</v>
+        <v>113.2</v>
       </c>
       <c r="D4" t="n">
-        <v>99.2</v>
+        <v>111.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>105.7415</v>
+        <v>106.2</v>
       </c>
       <c r="C5" t="n">
-        <v>116.889</v>
+        <v>111.5</v>
       </c>
       <c r="D5" t="n">
-        <v>110.4718</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105</v>
+        <v>106.9</v>
       </c>
       <c r="C6" t="n">
-        <v>114.2</v>
+        <v>110.7</v>
       </c>
       <c r="D6" t="n">
-        <v>109.6</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.9</v>
+        <v>106.7</v>
       </c>
       <c r="C7" t="n">
-        <v>113.2</v>
+        <v>112.9</v>
       </c>
       <c r="D7" t="n">
-        <v>111.4</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="C8" t="n">
-        <v>111.5</v>
+        <v>113.8</v>
       </c>
       <c r="D8" t="n">
-        <v>113.4</v>
+        <v>112.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>106.9</v>
+        <v>105.6</v>
       </c>
       <c r="C9" t="n">
-        <v>110.7</v>
+        <v>115.1</v>
       </c>
       <c r="D9" t="n">
-        <v>115.2</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.7</v>
+        <v>103.7</v>
       </c>
       <c r="C10" t="n">
-        <v>112.9</v>
+        <v>111.7</v>
       </c>
       <c r="D10" t="n">
-        <v>114.4</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.3</v>
+        <v>101.6</v>
       </c>
       <c r="C11" t="n">
-        <v>113.8</v>
+        <v>107.9</v>
       </c>
       <c r="D11" t="n">
-        <v>112.7</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>105.6</v>
+        <v>100.9</v>
       </c>
       <c r="C12" t="n">
-        <v>115.1</v>
+        <v>106.6</v>
       </c>
       <c r="D12" t="n">
-        <v>109.7</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.7</v>
+        <v>100.8</v>
       </c>
       <c r="C13" t="n">
-        <v>111.7</v>
+        <v>106.6</v>
       </c>
       <c r="D13" t="n">
-        <v>104.7</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.7</v>
+        <v>100.3</v>
       </c>
       <c r="C14" t="n">
-        <v>82.09999999999999</v>
+        <v>101.9</v>
       </c>
       <c r="D14" t="n">
-        <v>90.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>97.8</v>
+        <v>100.1</v>
       </c>
       <c r="C15" t="n">
-        <v>80.5</v>
+        <v>99</v>
       </c>
       <c r="D15" t="n">
-        <v>92.5</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98</v>
+        <v>99.2</v>
       </c>
       <c r="C16" t="n">
-        <v>79.5</v>
+        <v>99.7</v>
       </c>
       <c r="D16" t="n">
-        <v>94.2</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.3</v>
+        <v>99.2</v>
       </c>
       <c r="C17" t="n">
-        <v>101.9</v>
+        <v>101</v>
       </c>
       <c r="D17" t="n">
-        <v>98.5</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.1</v>
+        <v>98.7</v>
       </c>
       <c r="C18" t="n">
-        <v>99</v>
+        <v>100.3</v>
       </c>
       <c r="D18" t="n">
-        <v>97.59999999999999</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>99.7</v>
+        <v>95.3</v>
       </c>
       <c r="D19" t="n">
-        <v>95.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D20" t="n">
-        <v>93.90000000000001</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.7</v>
+        <v>97.7</v>
       </c>
       <c r="C21" t="n">
-        <v>100.3</v>
+        <v>85.5</v>
       </c>
       <c r="D21" t="n">
-        <v>91.7</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>95.3</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>90</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="C23" t="n">
-        <v>89</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>89.3</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="C24" t="n">
-        <v>85.5</v>
+        <v>80.5</v>
       </c>
       <c r="D24" t="n">
-        <v>88.7</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="C25" t="n">
-        <v>82.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="D25" t="n">
-        <v>88.8</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>99.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="C26" t="n">
-        <v>93.59999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>97.8</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.5</v>
+        <v>98.3</v>
       </c>
       <c r="C27" t="n">
-        <v>96</v>
+        <v>83.5</v>
       </c>
       <c r="D27" t="n">
-        <v>98.3</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>96.8</v>
+        <v>84.7</v>
       </c>
       <c r="D28" t="n">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="C29" t="n">
-        <v>81.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="D29" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.3</v>
+        <v>97.3</v>
       </c>
       <c r="C30" t="n">
-        <v>83.5</v>
+        <v>84</v>
       </c>
       <c r="D30" t="n">
-        <v>96.40000000000001</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="C31" t="n">
-        <v>84.7</v>
+        <v>86.7</v>
       </c>
       <c r="D31" t="n">
-        <v>98.09999999999999</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>84</v>
+        <v>92.2</v>
       </c>
       <c r="D32" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>97.3</v>
+        <v>98.5</v>
       </c>
       <c r="C33" t="n">
-        <v>84</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>93</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>86.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>92.2</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>95.59999999999999</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>98.5</v>
+        <v>99.5</v>
       </c>
       <c r="C36" t="n">
-        <v>94.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="D36" t="n">
-        <v>97.40000000000001</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="C37" t="n">
-        <v>95.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="D37" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.9</v>
+        <v>99.7</v>
       </c>
       <c r="C38" t="n">
-        <v>126.1</v>
+        <v>101.4</v>
       </c>
       <c r="D38" t="n">
-        <v>107.7</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>103.1</v>
+        <v>100.2</v>
       </c>
       <c r="C39" t="n">
-        <v>124.3</v>
+        <v>106.8</v>
       </c>
       <c r="D39" t="n">
-        <v>108.9</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.6</v>
+        <v>100.9</v>
       </c>
       <c r="C40" t="n">
-        <v>121</v>
+        <v>110.7</v>
       </c>
       <c r="D40" t="n">
-        <v>108</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.7</v>
+        <v>102.1</v>
       </c>
       <c r="C41" t="n">
-        <v>101.4</v>
+        <v>112.6</v>
       </c>
       <c r="D41" t="n">
-        <v>99.40000000000001</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.2</v>
+        <v>103.2</v>
       </c>
       <c r="C42" t="n">
-        <v>106.8</v>
+        <v>119.6</v>
       </c>
       <c r="D42" t="n">
-        <v>101.5</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.9</v>
+        <v>103.2</v>
       </c>
       <c r="C43" t="n">
-        <v>110.7</v>
+        <v>123.6</v>
       </c>
       <c r="D43" t="n">
-        <v>103.2</v>
+        <v>111.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>102.1</v>
+        <v>103.5</v>
       </c>
       <c r="C44" t="n">
-        <v>112.6</v>
+        <v>120.7</v>
       </c>
       <c r="D44" t="n">
-        <v>107.1</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="C45" t="n">
-        <v>119.6</v>
+        <v>124.6</v>
       </c>
       <c r="D45" t="n">
-        <v>110.4</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="C46" t="n">
-        <v>123.6</v>
+        <v>123.9</v>
       </c>
       <c r="D46" t="n">
-        <v>111.1</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>103.5</v>
+        <v>102.9</v>
       </c>
       <c r="C47" t="n">
-        <v>120.7</v>
+        <v>126.1</v>
       </c>
       <c r="D47" t="n">
-        <v>108.1</v>
+        <v>107.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>103.3</v>
+        <v>103.1</v>
       </c>
       <c r="C48" t="n">
-        <v>124.6</v>
+        <v>124.3</v>
       </c>
       <c r="D48" t="n">
-        <v>107.1</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>103.1</v>
+        <v>103.6</v>
       </c>
       <c r="C49" t="n">
-        <v>123.9</v>
+        <v>121</v>
       </c>
       <c r="D49" t="n">
-        <v>107.1</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2018-至今)/造纸和纸制品业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2018-至今)/造纸和纸制品业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,769 +453,1073 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.7415</v>
+        <v>101.6</v>
       </c>
       <c r="C2" t="n">
-        <v>116.889</v>
+        <v>107.9</v>
       </c>
       <c r="D2" t="n">
-        <v>110.4718</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105</v>
+        <v>100.9</v>
       </c>
       <c r="C3" t="n">
-        <v>114.2</v>
+        <v>106.6</v>
       </c>
       <c r="D3" t="n">
-        <v>109.6</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.9</v>
+        <v>100.8</v>
       </c>
       <c r="C4" t="n">
-        <v>113.2</v>
+        <v>106.6</v>
       </c>
       <c r="D4" t="n">
-        <v>111.4</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.2</v>
+        <v>105.7415</v>
       </c>
       <c r="C5" t="n">
-        <v>111.5</v>
+        <v>116.889</v>
       </c>
       <c r="D5" t="n">
-        <v>113.4</v>
+        <v>110.4718</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106.9</v>
+        <v>105</v>
       </c>
       <c r="C6" t="n">
-        <v>110.7</v>
+        <v>114.2</v>
       </c>
       <c r="D6" t="n">
-        <v>115.2</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.7</v>
+        <v>105.9</v>
       </c>
       <c r="C7" t="n">
-        <v>112.9</v>
+        <v>113.2</v>
       </c>
       <c r="D7" t="n">
-        <v>114.4</v>
+        <v>111.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.8</v>
+        <v>111.5</v>
       </c>
       <c r="D8" t="n">
-        <v>112.7</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.6</v>
+        <v>106.9</v>
       </c>
       <c r="C9" t="n">
-        <v>115.1</v>
+        <v>110.7</v>
       </c>
       <c r="D9" t="n">
-        <v>109.7</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.7</v>
+        <v>106.7</v>
       </c>
       <c r="C10" t="n">
-        <v>111.7</v>
+        <v>112.9</v>
       </c>
       <c r="D10" t="n">
-        <v>104.7</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.6</v>
+        <v>106.3</v>
       </c>
       <c r="C11" t="n">
-        <v>107.9</v>
+        <v>113.8</v>
       </c>
       <c r="D11" t="n">
-        <v>99.90000000000001</v>
+        <v>112.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.9</v>
+        <v>105.6</v>
       </c>
       <c r="C12" t="n">
-        <v>106.6</v>
+        <v>115.1</v>
       </c>
       <c r="D12" t="n">
-        <v>98.7</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.8</v>
+        <v>103.7</v>
       </c>
       <c r="C13" t="n">
-        <v>106.6</v>
+        <v>111.7</v>
       </c>
       <c r="D13" t="n">
-        <v>99.2</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.3</v>
+        <v>97.7</v>
       </c>
       <c r="C14" t="n">
-        <v>101.9</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>98.5</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.1</v>
+        <v>97.8</v>
       </c>
       <c r="C15" t="n">
-        <v>99</v>
+        <v>80.5</v>
       </c>
       <c r="D15" t="n">
-        <v>97.59999999999999</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.2</v>
+        <v>98</v>
       </c>
       <c r="C16" t="n">
-        <v>99.7</v>
+        <v>79.5</v>
       </c>
       <c r="D16" t="n">
-        <v>95.5</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.2</v>
+        <v>100.3</v>
       </c>
       <c r="C17" t="n">
-        <v>101</v>
+        <v>101.9</v>
       </c>
       <c r="D17" t="n">
-        <v>93.90000000000001</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.7</v>
+        <v>100.1</v>
       </c>
       <c r="C18" t="n">
-        <v>100.3</v>
+        <v>99</v>
       </c>
       <c r="D18" t="n">
-        <v>91.7</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="C19" t="n">
-        <v>95.3</v>
+        <v>99.7</v>
       </c>
       <c r="D19" t="n">
-        <v>90</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="C20" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D20" t="n">
-        <v>89.3</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.7</v>
+        <v>98.7</v>
       </c>
       <c r="C21" t="n">
-        <v>85.5</v>
+        <v>100.3</v>
       </c>
       <c r="D21" t="n">
-        <v>88.7</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>82.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D22" t="n">
-        <v>88.8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>82.09999999999999</v>
+        <v>89</v>
       </c>
       <c r="D23" t="n">
-        <v>90.5</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="C24" t="n">
-        <v>80.5</v>
+        <v>85.5</v>
       </c>
       <c r="D24" t="n">
-        <v>92.5</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>79.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>94.2</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>81.90000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>95.7</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B27" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>96</v>
+      </c>
+      <c r="D27" t="n">
         <v>98.3</v>
-      </c>
-      <c r="C27" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="C28" t="n">
-        <v>84.7</v>
+        <v>96.8</v>
       </c>
       <c r="D28" t="n">
-        <v>98.09999999999999</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="C29" t="n">
-        <v>84</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.3</v>
+        <v>98.3</v>
       </c>
       <c r="C30" t="n">
-        <v>84</v>
+        <v>83.5</v>
       </c>
       <c r="D30" t="n">
-        <v>93</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>86.7</v>
+        <v>84.7</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C32" t="n">
-        <v>92.2</v>
+        <v>84</v>
       </c>
       <c r="D32" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98.5</v>
+        <v>97.3</v>
       </c>
       <c r="C33" t="n">
-        <v>94.59999999999999</v>
+        <v>84</v>
       </c>
       <c r="D33" t="n">
-        <v>97.40000000000001</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="C34" t="n">
-        <v>95.59999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="D34" t="n">
-        <v>97.59999999999999</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>93.59999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="D35" t="n">
-        <v>97.8</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99.5</v>
+        <v>98.5</v>
       </c>
       <c r="C36" t="n">
-        <v>96</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>98.3</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>96.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.7</v>
+        <v>102.9</v>
       </c>
       <c r="C38" t="n">
-        <v>101.4</v>
+        <v>126.1</v>
       </c>
       <c r="D38" t="n">
-        <v>99.40000000000001</v>
+        <v>107.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.2</v>
+        <v>103.1</v>
       </c>
       <c r="C39" t="n">
-        <v>106.8</v>
+        <v>124.3</v>
       </c>
       <c r="D39" t="n">
-        <v>101.5</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.9</v>
+        <v>103.6</v>
       </c>
       <c r="C40" t="n">
-        <v>110.7</v>
+        <v>121</v>
       </c>
       <c r="D40" t="n">
-        <v>103.2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>102.1</v>
+        <v>99.7</v>
       </c>
       <c r="C41" t="n">
-        <v>112.6</v>
+        <v>101.4</v>
       </c>
       <c r="D41" t="n">
-        <v>107.1</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>103.2</v>
+        <v>100.2</v>
       </c>
       <c r="C42" t="n">
-        <v>119.6</v>
+        <v>106.8</v>
       </c>
       <c r="D42" t="n">
-        <v>110.4</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B43" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="D43" t="n">
         <v>103.2</v>
-      </c>
-      <c r="C43" t="n">
-        <v>123.6</v>
-      </c>
-      <c r="D43" t="n">
-        <v>111.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>103.5</v>
+        <v>102.1</v>
       </c>
       <c r="C44" t="n">
-        <v>120.7</v>
+        <v>112.6</v>
       </c>
       <c r="D44" t="n">
-        <v>108.1</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="C45" t="n">
-        <v>124.6</v>
+        <v>119.6</v>
       </c>
       <c r="D45" t="n">
-        <v>107.1</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="C46" t="n">
-        <v>123.9</v>
+        <v>123.6</v>
       </c>
       <c r="D46" t="n">
-        <v>107.1</v>
+        <v>111.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>102.9</v>
+        <v>103.5</v>
       </c>
       <c r="C47" t="n">
-        <v>126.1</v>
+        <v>120.7</v>
       </c>
       <c r="D47" t="n">
-        <v>107.7</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>103.1</v>
+        <v>103.3</v>
       </c>
       <c r="C48" t="n">
-        <v>124.3</v>
+        <v>124.6</v>
       </c>
       <c r="D48" t="n">
-        <v>108.9</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>103.6</v>
+        <v>103.1</v>
       </c>
       <c r="C49" t="n">
-        <v>121</v>
+        <v>123.9</v>
       </c>
       <c r="D49" t="n">
-        <v>108</v>
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="C51" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>95.90000000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>103.3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="C55" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="D55" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="C57" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="D57" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="C58" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>117.9</v>
+      </c>
+      <c r="D60" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="D61" t="n">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="C62" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="D62" t="n">
+        <v>96.40000000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>100</v>
+      </c>
+      <c r="C64" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>94.40000000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>92.40000000000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C66" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>91.40000000000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="C67" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="D67" t="n">
+        <v>90.09999999999999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="C68" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
